--- a/output/teste/df_split1.xlsx
+++ b/output/teste/df_split1.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,13 +441,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>138.6120356006453</v>
+        <v>101.3853677358394</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -459,30 +459,30 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>207.9180534009679</v>
+        <v>152.0780516037591</v>
       </c>
       <c r="H2">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="I2">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="J2">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="K2">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>111.0477035032966</v>
+        <v>95.4377950037229</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -494,30 +494,30 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>166.5715552549449</v>
+        <v>143.1566925055843</v>
       </c>
       <c r="H3">
+        <v>0.39</v>
+      </c>
+      <c r="I3">
+        <v>0.4</v>
+      </c>
+      <c r="J3">
+        <v>0.15</v>
+      </c>
+      <c r="K3">
         <v>0.35</v>
-      </c>
-      <c r="I3">
-        <v>0.44</v>
-      </c>
-      <c r="J3">
-        <v>0.13</v>
-      </c>
-      <c r="K3">
-        <v>0.31</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>101.3853677358394</v>
+        <v>95.10188558031456</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -529,30 +529,30 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>152.0780516037591</v>
+        <v>142.6528283704718</v>
       </c>
       <c r="H4">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="I4">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="K4">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>95.4377950037229</v>
+        <v>100.6937895111742</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -564,30 +564,30 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>143.1566925055843</v>
+        <v>151.0406842667613</v>
       </c>
       <c r="H5">
         <v>0.39</v>
       </c>
       <c r="I5">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="J5">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="K5">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>95.10188558031456</v>
+        <v>122.9626083453766</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -599,299 +599,54 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>142.6528283704718</v>
+        <v>184.4439125180649</v>
       </c>
       <c r="H6">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="I6">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="J6">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="K6">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>100.6937895111742</v>
+        <v>217.7285845022828</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.00555556</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.00555556</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.01111112</v>
       </c>
       <c r="G7">
-        <v>151.0406842667613</v>
+        <v>326.5928767534242</v>
       </c>
       <c r="H7">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="I7">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="J7">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="K7">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>122.9626083453766</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>184.4439125180649</v>
-      </c>
-      <c r="H8">
-        <v>0.4</v>
-      </c>
-      <c r="I8">
-        <v>0.44</v>
-      </c>
-      <c r="J8">
-        <v>0.19</v>
-      </c>
-      <c r="K8">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>217.7285845022828</v>
-      </c>
-      <c r="D9">
-        <v>0.00555556</v>
-      </c>
-      <c r="E9">
-        <v>0.00555556</v>
-      </c>
-      <c r="F9">
-        <v>0.01111112</v>
-      </c>
-      <c r="G9">
-        <v>326.5928767534242</v>
-      </c>
-      <c r="H9">
-        <v>0.38</v>
-      </c>
-      <c r="I9">
-        <v>0.41</v>
-      </c>
-      <c r="J9">
-        <v>0.17</v>
-      </c>
-      <c r="K9">
         <v>0.33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>340.6121553362682</v>
-      </c>
-      <c r="D10">
-        <v>0.02222224</v>
-      </c>
-      <c r="E10">
-        <v>0.02222224</v>
-      </c>
-      <c r="F10">
-        <v>0.04444448</v>
-      </c>
-      <c r="G10">
-        <v>510.9182330044023</v>
-      </c>
-      <c r="H10">
-        <v>0.38</v>
-      </c>
-      <c r="I10">
-        <v>0.47</v>
-      </c>
-      <c r="J10">
-        <v>0.18</v>
-      </c>
-      <c r="K10">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>428.3635523572899</v>
-      </c>
-      <c r="D11">
-        <v>0.08611118000000001</v>
-      </c>
-      <c r="E11">
-        <v>0.08611118000000001</v>
-      </c>
-      <c r="F11">
-        <v>0.17222236</v>
-      </c>
-      <c r="G11">
-        <v>642.5453285359349</v>
-      </c>
-      <c r="H11">
-        <v>0.4</v>
-      </c>
-      <c r="I11">
-        <v>0.45</v>
-      </c>
-      <c r="J11">
-        <v>0.12</v>
-      </c>
-      <c r="K11">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>498.7069374946091</v>
-      </c>
-      <c r="D12">
-        <v>0.10000008</v>
-      </c>
-      <c r="E12">
-        <v>0.10000008</v>
-      </c>
-      <c r="F12">
-        <v>0.20000016</v>
-      </c>
-      <c r="G12">
-        <v>748.0604062419137</v>
-      </c>
-      <c r="H12">
-        <v>0.34</v>
-      </c>
-      <c r="I12">
-        <v>0.42</v>
-      </c>
-      <c r="J12">
-        <v>0.14</v>
-      </c>
-      <c r="K12">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>508.3495138842192</v>
-      </c>
-      <c r="D13">
-        <v>0.11944454</v>
-      </c>
-      <c r="E13">
-        <v>0.11944454</v>
-      </c>
-      <c r="F13">
-        <v>0.23888908</v>
-      </c>
-      <c r="G13">
-        <v>762.5242708263288</v>
-      </c>
-      <c r="H13">
-        <v>0.35</v>
-      </c>
-      <c r="I13">
-        <v>0.48</v>
-      </c>
-      <c r="J13">
-        <v>0.12</v>
-      </c>
-      <c r="K13">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>425.5577207029365</v>
-      </c>
-      <c r="D14">
-        <v>0.10277786</v>
-      </c>
-      <c r="E14">
-        <v>0.10277786</v>
-      </c>
-      <c r="F14">
-        <v>0.20555572</v>
-      </c>
-      <c r="G14">
-        <v>638.3365810544047</v>
-      </c>
-      <c r="H14">
-        <v>0.35</v>
-      </c>
-      <c r="I14">
-        <v>0.45</v>
-      </c>
-      <c r="J14">
-        <v>0.14</v>
-      </c>
-      <c r="K14">
-        <v>0.38</v>
       </c>
     </row>
   </sheetData>

--- a/output/teste/df_split1.xlsx
+++ b/output/teste/df_split1.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,13 +441,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
       <c r="C2">
-        <v>101.3853677358394</v>
+        <v>111.0477035032966</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -459,30 +459,30 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>152.0780516037591</v>
+        <v>166.5715552549449</v>
       </c>
       <c r="H2">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="I2">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="K2">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
       <c r="C3">
-        <v>95.4377950037229</v>
+        <v>101.3853677358394</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -494,30 +494,30 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>143.1566925055843</v>
+        <v>152.0780516037591</v>
       </c>
       <c r="H3">
         <v>0.39</v>
       </c>
       <c r="I3">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="J3">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="K3">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
       <c r="C4">
-        <v>95.10188558031456</v>
+        <v>95.4377950037229</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -529,30 +529,30 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>142.6528283704718</v>
+        <v>143.1566925055843</v>
       </c>
       <c r="H4">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="I4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J4">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="K4">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
       <c r="C5">
-        <v>100.6937895111742</v>
+        <v>95.10188558031456</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>151.0406842667613</v>
+        <v>142.6528283704718</v>
       </c>
       <c r="H5">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="I5">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="J5">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="K5">
         <v>0.34</v>
@@ -581,13 +581,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
       <c r="C6">
-        <v>122.9626083453766</v>
+        <v>100.6937895111742</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -599,54 +599,229 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>184.4439125180649</v>
+        <v>151.0406842667613</v>
       </c>
       <c r="H6">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="I6">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="J6">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="K6">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="C7">
+        <v>122.9626083453766</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>184.4439125180649</v>
+      </c>
+      <c r="H7">
+        <v>0.4</v>
+      </c>
+      <c r="I7">
+        <v>0.44</v>
+      </c>
+      <c r="J7">
+        <v>0.19</v>
+      </c>
+      <c r="K7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>217.7285845022828</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>0.00555556</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>0.00555556</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>0.01111112</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>326.5928767534242</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>0.38</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>0.41</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>0.17</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>0.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>340.6121553362682</v>
+      </c>
+      <c r="D9">
+        <v>0.02222224</v>
+      </c>
+      <c r="E9">
+        <v>0.02222224</v>
+      </c>
+      <c r="F9">
+        <v>0.04444448</v>
+      </c>
+      <c r="G9">
+        <v>510.9182330044023</v>
+      </c>
+      <c r="H9">
+        <v>0.38</v>
+      </c>
+      <c r="I9">
+        <v>0.47</v>
+      </c>
+      <c r="J9">
+        <v>0.18</v>
+      </c>
+      <c r="K9">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>428.3635523572899</v>
+      </c>
+      <c r="D10">
+        <v>0.08611118000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.08611118000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.17222236</v>
+      </c>
+      <c r="G10">
+        <v>642.5453285359349</v>
+      </c>
+      <c r="H10">
+        <v>0.4</v>
+      </c>
+      <c r="I10">
+        <v>0.45</v>
+      </c>
+      <c r="J10">
+        <v>0.12</v>
+      </c>
+      <c r="K10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>498.7069374946091</v>
+      </c>
+      <c r="D11">
+        <v>0.10000008</v>
+      </c>
+      <c r="E11">
+        <v>0.10000008</v>
+      </c>
+      <c r="F11">
+        <v>0.20000016</v>
+      </c>
+      <c r="G11">
+        <v>748.0604062419137</v>
+      </c>
+      <c r="H11">
+        <v>0.34</v>
+      </c>
+      <c r="I11">
+        <v>0.42</v>
+      </c>
+      <c r="J11">
+        <v>0.14</v>
+      </c>
+      <c r="K11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>508.3495138842192</v>
+      </c>
+      <c r="D12">
+        <v>0.11944454</v>
+      </c>
+      <c r="E12">
+        <v>0.11944454</v>
+      </c>
+      <c r="F12">
+        <v>0.23888908</v>
+      </c>
+      <c r="G12">
+        <v>762.5242708263288</v>
+      </c>
+      <c r="H12">
+        <v>0.35</v>
+      </c>
+      <c r="I12">
+        <v>0.48</v>
+      </c>
+      <c r="J12">
+        <v>0.12</v>
+      </c>
+      <c r="K12">
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>

--- a/output/teste/df_split1.xlsx
+++ b/output/teste/df_split1.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,13 +441,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>111.0477035032966</v>
+        <v>95.4377950037229</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -459,30 +459,30 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>166.5715552549449</v>
+        <v>143.1566925055843</v>
       </c>
       <c r="H2">
+        <v>0.39</v>
+      </c>
+      <c r="I2">
+        <v>0.4</v>
+      </c>
+      <c r="J2">
+        <v>0.15</v>
+      </c>
+      <c r="K2">
         <v>0.35</v>
-      </c>
-      <c r="I2">
-        <v>0.44</v>
-      </c>
-      <c r="J2">
-        <v>0.13</v>
-      </c>
-      <c r="K2">
-        <v>0.31</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>101.3853677358394</v>
+        <v>95.10188558031456</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -494,30 +494,30 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>152.0780516037591</v>
+        <v>142.6528283704718</v>
       </c>
       <c r="H3">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="I3">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="K3">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>95.4377950037229</v>
+        <v>100.6937895111742</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -529,30 +529,30 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>143.1566925055843</v>
+        <v>151.0406842667613</v>
       </c>
       <c r="H4">
         <v>0.39</v>
       </c>
       <c r="I4">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="J4">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="K4">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>95.10188558031456</v>
+        <v>122.9626083453766</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -564,264 +564,439 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>142.6528283704718</v>
+        <v>184.4439125180649</v>
       </c>
       <c r="H5">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="I5">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="J5">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="K5">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>100.6937895111742</v>
+        <v>217.7285845022828</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.00555556</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.00555556</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.01111112</v>
       </c>
       <c r="G6">
-        <v>151.0406842667613</v>
+        <v>326.5928767534242</v>
       </c>
       <c r="H6">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="I6">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="J6">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="K6">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>122.9626083453766</v>
+        <v>340.6121553362682</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.02222224</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.02222224</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.04444448</v>
       </c>
       <c r="G7">
-        <v>184.4439125180649</v>
+        <v>510.9182330044023</v>
       </c>
       <c r="H7">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="I7">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="J7">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="K7">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>217.7285845022828</v>
+        <v>428.3635523572899</v>
       </c>
       <c r="D8">
-        <v>0.00555556</v>
+        <v>0.08611118000000001</v>
       </c>
       <c r="E8">
-        <v>0.00555556</v>
+        <v>0.08611118000000001</v>
       </c>
       <c r="F8">
-        <v>0.01111112</v>
+        <v>0.17222236</v>
       </c>
       <c r="G8">
-        <v>326.5928767534242</v>
+        <v>642.5453285359349</v>
       </c>
       <c r="H8">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="I8">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="J8">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="K8">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>340.6121553362682</v>
+        <v>498.7069374946091</v>
       </c>
       <c r="D9">
-        <v>0.02222224</v>
+        <v>0.10000008</v>
       </c>
       <c r="E9">
-        <v>0.02222224</v>
+        <v>0.10000008</v>
       </c>
       <c r="F9">
-        <v>0.04444448</v>
+        <v>0.20000016</v>
       </c>
       <c r="G9">
-        <v>510.9182330044023</v>
+        <v>748.0604062419137</v>
       </c>
       <c r="H9">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="I9">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="J9">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="K9">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>428.3635523572899</v>
+        <v>508.3495138842192</v>
       </c>
       <c r="D10">
-        <v>0.08611118000000001</v>
+        <v>0.11944454</v>
       </c>
       <c r="E10">
-        <v>0.08611118000000001</v>
+        <v>0.11944454</v>
       </c>
       <c r="F10">
-        <v>0.17222236</v>
+        <v>0.23888908</v>
       </c>
       <c r="G10">
-        <v>642.5453285359349</v>
+        <v>762.5242708263288</v>
       </c>
       <c r="H10">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="I10">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="J10">
         <v>0.12</v>
       </c>
       <c r="K10">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>498.7069374946091</v>
+        <v>425.5577207029365</v>
       </c>
       <c r="D11">
-        <v>0.10000008</v>
+        <v>0.10277786</v>
       </c>
       <c r="E11">
-        <v>0.10000008</v>
+        <v>0.10277786</v>
       </c>
       <c r="F11">
-        <v>0.20000016</v>
+        <v>0.20555572</v>
       </c>
       <c r="G11">
-        <v>748.0604062419137</v>
+        <v>638.3365810544047</v>
       </c>
       <c r="H11">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="I11">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="J11">
         <v>0.14</v>
       </c>
       <c r="K11">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>508.3495138842192</v>
+        <v>334.7633794933903</v>
       </c>
       <c r="D12">
-        <v>0.11944454</v>
+        <v>0.0416667</v>
       </c>
       <c r="E12">
-        <v>0.11944454</v>
+        <v>0.0416667</v>
       </c>
       <c r="F12">
-        <v>0.23888908</v>
+        <v>0.0833334</v>
       </c>
       <c r="G12">
-        <v>762.5242708263288</v>
+        <v>502.1450692400854</v>
       </c>
       <c r="H12">
+        <v>0.3</v>
+      </c>
+      <c r="I12">
+        <v>0.4</v>
+      </c>
+      <c r="J12">
+        <v>0.11</v>
+      </c>
+      <c r="K12">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>286.7480913238156</v>
+      </c>
+      <c r="D13">
+        <v>0.0138889</v>
+      </c>
+      <c r="E13">
+        <v>0.0138889</v>
+      </c>
+      <c r="F13">
+        <v>0.0277778</v>
+      </c>
+      <c r="G13">
+        <v>430.1221369857234</v>
+      </c>
+      <c r="H13">
+        <v>0.33</v>
+      </c>
+      <c r="I13">
+        <v>0.49</v>
+      </c>
+      <c r="J13">
+        <v>0.12</v>
+      </c>
+      <c r="K13">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>262.4045378156197</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>393.6068067234295</v>
+      </c>
+      <c r="H14">
+        <v>0.39</v>
+      </c>
+      <c r="I14">
+        <v>0.46</v>
+      </c>
+      <c r="J14">
+        <v>0.14</v>
+      </c>
+      <c r="K14">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>309.1354664251031</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>463.7031996376547</v>
+      </c>
+      <c r="H15">
+        <v>0.37</v>
+      </c>
+      <c r="I15">
+        <v>0.48</v>
+      </c>
+      <c r="J15">
+        <v>0.19</v>
+      </c>
+      <c r="K15">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>384.636049180636</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>576.954073770954</v>
+      </c>
+      <c r="H16">
         <v>0.35</v>
       </c>
-      <c r="I12">
-        <v>0.48</v>
-      </c>
-      <c r="J12">
-        <v>0.12</v>
-      </c>
-      <c r="K12">
-        <v>0.36</v>
+      <c r="I16">
+        <v>0.4</v>
+      </c>
+      <c r="J16">
+        <v>0.18</v>
+      </c>
+      <c r="K16">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>433.5207499755035</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>650.2811249632553</v>
+      </c>
+      <c r="H17">
+        <v>0.38</v>
+      </c>
+      <c r="I17">
+        <v>0.41</v>
+      </c>
+      <c r="J17">
+        <v>0.17</v>
+      </c>
+      <c r="K17">
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>

--- a/output/teste/df_split1.xlsx
+++ b/output/teste/df_split1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>HOURS</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>param_net1_cost_buy_thermal</t>
+  </si>
+  <si>
+    <t>param_P_to_demand2</t>
+  </si>
+  <si>
+    <t>param_Q_to_demand2</t>
   </si>
 </sst>
 </file>
@@ -401,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +444,14 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -473,8 +485,14 @@
       <c r="K2">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>500</v>
+      </c>
+      <c r="M2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -508,8 +526,14 @@
       <c r="K3">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>500</v>
+      </c>
+      <c r="M3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -543,8 +567,14 @@
       <c r="K4">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>500</v>
+      </c>
+      <c r="M4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -578,8 +608,14 @@
       <c r="K5">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>500</v>
+      </c>
+      <c r="M5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -613,8 +649,14 @@
       <c r="K6">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>500</v>
+      </c>
+      <c r="M6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -648,8 +690,14 @@
       <c r="K7">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>500</v>
+      </c>
+      <c r="M7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -683,8 +731,14 @@
       <c r="K8">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>500</v>
+      </c>
+      <c r="M8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -718,8 +772,14 @@
       <c r="K9">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>500</v>
+      </c>
+      <c r="M9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -753,8 +813,14 @@
       <c r="K10">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>500</v>
+      </c>
+      <c r="M10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>13</v>
       </c>
@@ -788,8 +854,14 @@
       <c r="K11">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>500</v>
+      </c>
+      <c r="M11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>14</v>
       </c>
@@ -823,8 +895,14 @@
       <c r="K12">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>500</v>
+      </c>
+      <c r="M12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>15</v>
       </c>
@@ -858,8 +936,14 @@
       <c r="K13">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>500</v>
+      </c>
+      <c r="M13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>16</v>
       </c>
@@ -893,8 +977,14 @@
       <c r="K14">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>500</v>
+      </c>
+      <c r="M14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>17</v>
       </c>
@@ -928,8 +1018,14 @@
       <c r="K15">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>500</v>
+      </c>
+      <c r="M15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>18</v>
       </c>
@@ -963,8 +1059,14 @@
       <c r="K16">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>500</v>
+      </c>
+      <c r="M16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>19</v>
       </c>
@@ -997,6 +1099,12 @@
       </c>
       <c r="K17">
         <v>0.33</v>
+      </c>
+      <c r="L17">
+        <v>500</v>
+      </c>
+      <c r="M17">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/output/teste/df_split1.xlsx
+++ b/output/teste/df_split1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>HOURS</t>
   </si>
@@ -50,6 +50,33 @@
   </si>
   <si>
     <t>param_Q_to_demand2</t>
+  </si>
+  <si>
+    <t>param_net2_cost_buy_electric</t>
+  </si>
+  <si>
+    <t>param_net2_cost_sell_electric</t>
+  </si>
+  <si>
+    <t>param_net2_cost_buy_thermal</t>
+  </si>
+  <si>
+    <t>param_net2_cost_sell_thermal</t>
+  </si>
+  <si>
+    <t>param_E_pv2_solar</t>
+  </si>
+  <si>
+    <t>param_E_solar_th2_solar</t>
+  </si>
+  <si>
+    <t>param_E_pvt2_solar</t>
+  </si>
+  <si>
+    <t>param_P_to_charging_station1</t>
+  </si>
+  <si>
+    <t>param_P_to_charging_station2</t>
   </si>
 </sst>
 </file>
@@ -407,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +477,35 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -491,8 +545,35 @@
       <c r="M2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0.4</v>
+      </c>
+      <c r="O2">
+        <v>0.3</v>
+      </c>
+      <c r="P2">
+        <v>0.2</v>
+      </c>
+      <c r="Q2">
+        <v>0.1</v>
+      </c>
+      <c r="R2">
+        <v>0.12</v>
+      </c>
+      <c r="S2">
+        <v>0.12</v>
+      </c>
+      <c r="T2">
+        <v>0.12</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -532,8 +613,35 @@
       <c r="M3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0.4</v>
+      </c>
+      <c r="O3">
+        <v>0.3</v>
+      </c>
+      <c r="P3">
+        <v>0.2</v>
+      </c>
+      <c r="Q3">
+        <v>0.1</v>
+      </c>
+      <c r="R3">
+        <v>0.12</v>
+      </c>
+      <c r="S3">
+        <v>0.12</v>
+      </c>
+      <c r="T3">
+        <v>0.12</v>
+      </c>
+      <c r="U3">
+        <v>13.2</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -573,8 +681,35 @@
       <c r="M4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0.4</v>
+      </c>
+      <c r="O4">
+        <v>0.3</v>
+      </c>
+      <c r="P4">
+        <v>0.2</v>
+      </c>
+      <c r="Q4">
+        <v>0.1</v>
+      </c>
+      <c r="R4">
+        <v>0.12</v>
+      </c>
+      <c r="S4">
+        <v>0.12</v>
+      </c>
+      <c r="T4">
+        <v>0.12</v>
+      </c>
+      <c r="U4">
+        <v>83.09400000000001</v>
+      </c>
+      <c r="V4">
+        <v>60.32552777777779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -614,8 +749,35 @@
       <c r="M5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0.4</v>
+      </c>
+      <c r="O5">
+        <v>0.3</v>
+      </c>
+      <c r="P5">
+        <v>0.2</v>
+      </c>
+      <c r="Q5">
+        <v>0.1</v>
+      </c>
+      <c r="R5">
+        <v>0.12</v>
+      </c>
+      <c r="S5">
+        <v>0.12</v>
+      </c>
+      <c r="T5">
+        <v>0.12</v>
+      </c>
+      <c r="U5">
+        <v>116.9324444444445</v>
+      </c>
+      <c r="V5">
+        <v>99.11000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -655,8 +817,35 @@
       <c r="M6">
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0.4</v>
+      </c>
+      <c r="O6">
+        <v>0.3</v>
+      </c>
+      <c r="P6">
+        <v>0.2</v>
+      </c>
+      <c r="Q6">
+        <v>0.1</v>
+      </c>
+      <c r="R6">
+        <v>0.12</v>
+      </c>
+      <c r="S6">
+        <v>0.12</v>
+      </c>
+      <c r="T6">
+        <v>0.12</v>
+      </c>
+      <c r="U6">
+        <v>34.73616666666668</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -696,8 +885,35 @@
       <c r="M7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0.4</v>
+      </c>
+      <c r="O7">
+        <v>0.3</v>
+      </c>
+      <c r="P7">
+        <v>0.2</v>
+      </c>
+      <c r="Q7">
+        <v>0.1</v>
+      </c>
+      <c r="R7">
+        <v>0.12</v>
+      </c>
+      <c r="S7">
+        <v>0.12</v>
+      </c>
+      <c r="T7">
+        <v>0.12</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -737,8 +953,35 @@
       <c r="M8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0.4</v>
+      </c>
+      <c r="O8">
+        <v>0.3</v>
+      </c>
+      <c r="P8">
+        <v>0.2</v>
+      </c>
+      <c r="Q8">
+        <v>0.1</v>
+      </c>
+      <c r="R8">
+        <v>0.12</v>
+      </c>
+      <c r="S8">
+        <v>0.12</v>
+      </c>
+      <c r="T8">
+        <v>0.12</v>
+      </c>
+      <c r="U8">
+        <v>42.63600000000001</v>
+      </c>
+      <c r="V8">
+        <v>32.72500000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -778,8 +1021,35 @@
       <c r="M9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0.4</v>
+      </c>
+      <c r="O9">
+        <v>0.3</v>
+      </c>
+      <c r="P9">
+        <v>0.2</v>
+      </c>
+      <c r="Q9">
+        <v>0.1</v>
+      </c>
+      <c r="R9">
+        <v>0.12</v>
+      </c>
+      <c r="S9">
+        <v>0.12</v>
+      </c>
+      <c r="T9">
+        <v>0.12</v>
+      </c>
+      <c r="U9">
+        <v>82.34752777777777</v>
+      </c>
+      <c r="V9">
+        <v>121.7590000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -819,8 +1089,35 @@
       <c r="M10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0.4</v>
+      </c>
+      <c r="O10">
+        <v>0.3</v>
+      </c>
+      <c r="P10">
+        <v>0.2</v>
+      </c>
+      <c r="Q10">
+        <v>0.1</v>
+      </c>
+      <c r="R10">
+        <v>0.12</v>
+      </c>
+      <c r="S10">
+        <v>0.12</v>
+      </c>
+      <c r="T10">
+        <v>0.12</v>
+      </c>
+      <c r="U10">
+        <v>44.00000000000001</v>
+      </c>
+      <c r="V10">
+        <v>31.84148611111112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>13</v>
       </c>
@@ -860,8 +1157,35 @@
       <c r="M11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0.4</v>
+      </c>
+      <c r="O11">
+        <v>0.3</v>
+      </c>
+      <c r="P11">
+        <v>0.2</v>
+      </c>
+      <c r="Q11">
+        <v>0.1</v>
+      </c>
+      <c r="R11">
+        <v>0.12</v>
+      </c>
+      <c r="S11">
+        <v>0.12</v>
+      </c>
+      <c r="T11">
+        <v>0.12</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>31.84148611111113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>14</v>
       </c>
@@ -901,8 +1225,35 @@
       <c r="M12">
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0.4</v>
+      </c>
+      <c r="O12">
+        <v>0.3</v>
+      </c>
+      <c r="P12">
+        <v>0.2</v>
+      </c>
+      <c r="Q12">
+        <v>0.1</v>
+      </c>
+      <c r="R12">
+        <v>0.12</v>
+      </c>
+      <c r="S12">
+        <v>0.12</v>
+      </c>
+      <c r="T12">
+        <v>0.12</v>
+      </c>
+      <c r="U12">
+        <v>12.87</v>
+      </c>
+      <c r="V12">
+        <v>101.5839305555556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>15</v>
       </c>
@@ -942,8 +1293,35 @@
       <c r="M13">
         <v>1000</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0.4</v>
+      </c>
+      <c r="O13">
+        <v>0.3</v>
+      </c>
+      <c r="P13">
+        <v>0.2</v>
+      </c>
+      <c r="Q13">
+        <v>0.1</v>
+      </c>
+      <c r="R13">
+        <v>0.12</v>
+      </c>
+      <c r="S13">
+        <v>0.12</v>
+      </c>
+      <c r="T13">
+        <v>0.12</v>
+      </c>
+      <c r="U13">
+        <v>57.89361111111112</v>
+      </c>
+      <c r="V13">
+        <v>85.9005277777778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>16</v>
       </c>
@@ -983,8 +1361,35 @@
       <c r="M14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0.4</v>
+      </c>
+      <c r="O14">
+        <v>0.3</v>
+      </c>
+      <c r="P14">
+        <v>0.2</v>
+      </c>
+      <c r="Q14">
+        <v>0.1</v>
+      </c>
+      <c r="R14">
+        <v>0.12</v>
+      </c>
+      <c r="S14">
+        <v>0.12</v>
+      </c>
+      <c r="T14">
+        <v>0.12</v>
+      </c>
+      <c r="U14">
+        <v>51.42500000000003</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>17</v>
       </c>
@@ -1024,8 +1429,35 @@
       <c r="M15">
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0.4</v>
+      </c>
+      <c r="O15">
+        <v>0.3</v>
+      </c>
+      <c r="P15">
+        <v>0.2</v>
+      </c>
+      <c r="Q15">
+        <v>0.1</v>
+      </c>
+      <c r="R15">
+        <v>0.12</v>
+      </c>
+      <c r="S15">
+        <v>0.12</v>
+      </c>
+      <c r="T15">
+        <v>0.12</v>
+      </c>
+      <c r="U15">
+        <v>104.0004166666667</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>18</v>
       </c>
@@ -1065,8 +1497,35 @@
       <c r="M16">
         <v>1000</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0.4</v>
+      </c>
+      <c r="O16">
+        <v>0.3</v>
+      </c>
+      <c r="P16">
+        <v>0.2</v>
+      </c>
+      <c r="Q16">
+        <v>0.1</v>
+      </c>
+      <c r="R16">
+        <v>0.12</v>
+      </c>
+      <c r="S16">
+        <v>0.12</v>
+      </c>
+      <c r="T16">
+        <v>0.12</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>19</v>
       </c>
@@ -1105,6 +1564,33 @@
       </c>
       <c r="M17">
         <v>1000</v>
+      </c>
+      <c r="N17">
+        <v>0.4</v>
+      </c>
+      <c r="O17">
+        <v>0.3</v>
+      </c>
+      <c r="P17">
+        <v>0.2</v>
+      </c>
+      <c r="Q17">
+        <v>0.1</v>
+      </c>
+      <c r="R17">
+        <v>0.12</v>
+      </c>
+      <c r="S17">
+        <v>0.12</v>
+      </c>
+      <c r="T17">
+        <v>0.12</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/teste/df_split1.xlsx
+++ b/output/teste/df_split1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>HOURS</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>param_E_pvt2_solar</t>
+  </si>
+  <si>
+    <t>param_E_pv3_solar</t>
   </si>
   <si>
     <t>param_P_to_charging_station1</t>
@@ -434,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +507,11 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -567,13 +573,16 @@
         <v>0.12</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -635,13 +644,16 @@
         <v>0.12</v>
       </c>
       <c r="U3">
-        <v>13.2</v>
+        <v>0.12</v>
       </c>
       <c r="V3">
+        <v>48.4227638888889</v>
+      </c>
+      <c r="W3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -703,13 +715,16 @@
         <v>0.12</v>
       </c>
       <c r="U4">
-        <v>83.09400000000001</v>
+        <v>0.12</v>
       </c>
       <c r="V4">
-        <v>60.32552777777779</v>
+        <v>107.8514861111111</v>
+      </c>
+      <c r="W4">
+        <v>16.21400000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -771,13 +786,16 @@
         <v>0.12</v>
       </c>
       <c r="U5">
-        <v>116.9324444444445</v>
+        <v>0.12</v>
       </c>
       <c r="V5">
-        <v>99.11000000000004</v>
+        <v>104.8002083333334</v>
+      </c>
+      <c r="W5">
+        <v>139.1058472222223</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -839,13 +857,16 @@
         <v>0.12</v>
       </c>
       <c r="U6">
-        <v>34.73616666666668</v>
+        <v>0.12</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -907,13 +928,16 @@
         <v>0.12</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -975,13 +999,16 @@
         <v>0.12</v>
       </c>
       <c r="U8">
-        <v>42.63600000000001</v>
+        <v>0.12</v>
       </c>
       <c r="V8">
-        <v>32.72500000000001</v>
+        <v>87.94500000000002</v>
+      </c>
+      <c r="W8">
+        <v>44.99000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -1043,13 +1070,16 @@
         <v>0.12</v>
       </c>
       <c r="U9">
-        <v>82.34752777777777</v>
+        <v>0.12</v>
       </c>
       <c r="V9">
-        <v>121.7590000000001</v>
+        <v>161.8688194444445</v>
+      </c>
+      <c r="W9">
+        <v>113.5164861111111</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -1111,13 +1141,16 @@
         <v>0.12</v>
       </c>
       <c r="U10">
-        <v>44.00000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="V10">
-        <v>31.84148611111112</v>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>13</v>
       </c>
@@ -1179,13 +1212,16 @@
         <v>0.12</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V11">
-        <v>31.84148611111113</v>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>47.85000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>14</v>
       </c>
@@ -1247,13 +1283,16 @@
         <v>0.12</v>
       </c>
       <c r="U12">
-        <v>12.87</v>
+        <v>0.12</v>
       </c>
       <c r="V12">
-        <v>101.5839305555556</v>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>109.395</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>15</v>
       </c>
@@ -1315,13 +1354,16 @@
         <v>0.12</v>
       </c>
       <c r="U13">
-        <v>57.89361111111112</v>
+        <v>0.12</v>
       </c>
       <c r="V13">
-        <v>85.9005277777778</v>
+        <v>59.89148611111113</v>
+      </c>
+      <c r="W13">
+        <v>49.33500000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>16</v>
       </c>
@@ -1383,13 +1425,16 @@
         <v>0.12</v>
       </c>
       <c r="U14">
-        <v>51.42500000000003</v>
+        <v>0.12</v>
       </c>
       <c r="V14">
+        <v>54.11648611111113</v>
+      </c>
+      <c r="W14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>17</v>
       </c>
@@ -1451,13 +1496,16 @@
         <v>0.12</v>
       </c>
       <c r="U15">
-        <v>104.0004166666667</v>
+        <v>0.12</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>18</v>
       </c>
@@ -1519,13 +1567,16 @@
         <v>0.12</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V16">
+        <v>71.51084722222224</v>
+      </c>
+      <c r="W16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:23">
       <c r="A17" s="1">
         <v>19</v>
       </c>
@@ -1587,9 +1638,12 @@
         <v>0.12</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V17">
+        <v>30.25000000000002</v>
+      </c>
+      <c r="W17">
         <v>0</v>
       </c>
     </row>

--- a/output/teste/df_split1.xlsx
+++ b/output/teste/df_split1.xlsx
@@ -513,13 +513,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>95.4377950037229</v>
+        <v>111.0477035032966</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -531,19 +531,19 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>143.1566925055843</v>
+        <v>166.5715552549449</v>
       </c>
       <c r="H2">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="I2">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="J2">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="K2">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="L2">
         <v>500</v>
@@ -584,13 +584,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>95.10188558031456</v>
+        <v>101.3853677358394</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>142.6528283704718</v>
+        <v>152.0780516037591</v>
       </c>
       <c r="H3">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="I3">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="J3">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="K3">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="L3">
         <v>500</v>
@@ -647,7 +647,7 @@
         <v>0.12</v>
       </c>
       <c r="V3">
-        <v>48.4227638888889</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -655,13 +655,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>100.6937895111742</v>
+        <v>95.4377950037229</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -673,19 +673,19 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>151.0406842667613</v>
+        <v>143.1566925055843</v>
       </c>
       <c r="H4">
         <v>0.39</v>
       </c>
       <c r="I4">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="J4">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="K4">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="L4">
         <v>500</v>
@@ -718,21 +718,21 @@
         <v>0.12</v>
       </c>
       <c r="V4">
-        <v>107.8514861111111</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>16.21400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>122.9626083453766</v>
+        <v>95.10188558031456</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>184.4439125180649</v>
+        <v>142.6528283704718</v>
       </c>
       <c r="H5">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="I5">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="J5">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="K5">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="L5">
         <v>500</v>
@@ -789,45 +789,45 @@
         <v>0.12</v>
       </c>
       <c r="V5">
-        <v>104.8002083333334</v>
+        <v>48.4227638888889</v>
       </c>
       <c r="W5">
-        <v>139.1058472222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>217.7285845022828</v>
+        <v>100.6937895111742</v>
       </c>
       <c r="D6">
-        <v>0.00555556</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.00555556</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.01111112</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>326.5928767534242</v>
+        <v>151.0406842667613</v>
       </c>
       <c r="H6">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="I6">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="J6">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="K6">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="L6">
         <v>500</v>
@@ -860,45 +860,45 @@
         <v>0.12</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>107.8514861111111</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>16.21400000000001</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>340.6121553362682</v>
+        <v>122.9626083453766</v>
       </c>
       <c r="D7">
-        <v>0.02222224</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02222224</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04444448</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>510.9182330044023</v>
+        <v>184.4439125180649</v>
       </c>
       <c r="H7">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="I7">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="J7">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="K7">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="L7">
         <v>500</v>
@@ -931,45 +931,45 @@
         <v>0.12</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>104.8002083333334</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>139.1058472222223</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>428.3635523572899</v>
+        <v>217.7285845022828</v>
       </c>
       <c r="D8">
-        <v>0.08611118000000001</v>
+        <v>0.00555556</v>
       </c>
       <c r="E8">
-        <v>0.08611118000000001</v>
+        <v>0.00555556</v>
       </c>
       <c r="F8">
-        <v>0.17222236</v>
+        <v>0.01111112</v>
       </c>
       <c r="G8">
-        <v>642.5453285359349</v>
+        <v>326.5928767534242</v>
       </c>
       <c r="H8">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="I8">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="J8">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="K8">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="L8">
         <v>500</v>
@@ -1002,45 +1002,45 @@
         <v>0.12</v>
       </c>
       <c r="V8">
-        <v>87.94500000000002</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>44.99000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>498.7069374946091</v>
+        <v>340.6121553362682</v>
       </c>
       <c r="D9">
-        <v>0.10000008</v>
+        <v>0.02222224</v>
       </c>
       <c r="E9">
-        <v>0.10000008</v>
+        <v>0.02222224</v>
       </c>
       <c r="F9">
-        <v>0.20000016</v>
+        <v>0.04444448</v>
       </c>
       <c r="G9">
-        <v>748.0604062419137</v>
+        <v>510.9182330044023</v>
       </c>
       <c r="H9">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="I9">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="J9">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="K9">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="L9">
         <v>500</v>
@@ -1073,45 +1073,45 @@
         <v>0.12</v>
       </c>
       <c r="V9">
-        <v>161.8688194444445</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>113.5164861111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>508.3495138842192</v>
+        <v>428.3635523572899</v>
       </c>
       <c r="D10">
-        <v>0.11944454</v>
+        <v>0.08611118000000001</v>
       </c>
       <c r="E10">
-        <v>0.11944454</v>
+        <v>0.08611118000000001</v>
       </c>
       <c r="F10">
-        <v>0.23888908</v>
+        <v>0.17222236</v>
       </c>
       <c r="G10">
-        <v>762.5242708263288</v>
+        <v>642.5453285359349</v>
       </c>
       <c r="H10">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="I10">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="J10">
         <v>0.12</v>
       </c>
       <c r="K10">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="L10">
         <v>500</v>
@@ -1144,45 +1144,45 @@
         <v>0.12</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>87.94500000000002</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>44.99000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>425.5577207029365</v>
+        <v>498.7069374946091</v>
       </c>
       <c r="D11">
-        <v>0.10277786</v>
+        <v>0.10000008</v>
       </c>
       <c r="E11">
-        <v>0.10277786</v>
+        <v>0.10000008</v>
       </c>
       <c r="F11">
-        <v>0.20555572</v>
+        <v>0.20000016</v>
       </c>
       <c r="G11">
-        <v>638.3365810544047</v>
+        <v>748.0604062419137</v>
       </c>
       <c r="H11">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="I11">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="J11">
         <v>0.14</v>
       </c>
       <c r="K11">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="L11">
         <v>500</v>
@@ -1215,45 +1215,45 @@
         <v>0.12</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>161.8688194444445</v>
       </c>
       <c r="W11">
-        <v>47.85000000000002</v>
+        <v>113.5164861111111</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>334.7633794933903</v>
+        <v>508.3495138842192</v>
       </c>
       <c r="D12">
-        <v>0.0416667</v>
+        <v>0.11944454</v>
       </c>
       <c r="E12">
-        <v>0.0416667</v>
+        <v>0.11944454</v>
       </c>
       <c r="F12">
-        <v>0.0833334</v>
+        <v>0.23888908</v>
       </c>
       <c r="G12">
-        <v>502.1450692400854</v>
+        <v>762.5242708263288</v>
       </c>
       <c r="H12">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="I12">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="J12">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="K12">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="L12">
         <v>500</v>
@@ -1289,42 +1289,42 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>109.395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>286.7480913238156</v>
+        <v>425.5577207029365</v>
       </c>
       <c r="D13">
-        <v>0.0138889</v>
+        <v>0.10277786</v>
       </c>
       <c r="E13">
-        <v>0.0138889</v>
+        <v>0.10277786</v>
       </c>
       <c r="F13">
-        <v>0.0277778</v>
+        <v>0.20555572</v>
       </c>
       <c r="G13">
-        <v>430.1221369857234</v>
+        <v>638.3365810544047</v>
       </c>
       <c r="H13">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="I13">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="J13">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="K13">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="L13">
         <v>500</v>
@@ -1357,45 +1357,45 @@
         <v>0.12</v>
       </c>
       <c r="V13">
-        <v>59.89148611111113</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>49.33500000000002</v>
+        <v>47.85000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>262.4045378156197</v>
+        <v>334.7633794933903</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.0416667</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.0416667</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.0833334</v>
       </c>
       <c r="G14">
-        <v>393.6068067234295</v>
+        <v>502.1450692400854</v>
       </c>
       <c r="H14">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="I14">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="J14">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="K14">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="L14">
         <v>500</v>
@@ -1428,45 +1428,45 @@
         <v>0.12</v>
       </c>
       <c r="V14">
-        <v>54.11648611111113</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>109.395</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>309.1354664251031</v>
+        <v>286.7480913238156</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.0138889</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.0138889</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.0277778</v>
       </c>
       <c r="G15">
-        <v>463.7031996376547</v>
+        <v>430.1221369857234</v>
       </c>
       <c r="H15">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="I15">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="J15">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="K15">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="L15">
         <v>500</v>
@@ -1499,21 +1499,21 @@
         <v>0.12</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>59.89148611111113</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>49.33500000000002</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>384.636049180636</v>
+        <v>262.4045378156197</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>576.954073770954</v>
+        <v>393.6068067234295</v>
       </c>
       <c r="H16">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="I16">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="J16">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="K16">
         <v>0.39</v>
@@ -1570,7 +1570,7 @@
         <v>0.12</v>
       </c>
       <c r="V16">
-        <v>71.51084722222224</v>
+        <v>54.11648611111113</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -1578,13 +1578,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>433.5207499755035</v>
+        <v>309.1354664251031</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1596,19 +1596,19 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>650.2811249632553</v>
+        <v>463.7031996376547</v>
       </c>
       <c r="H17">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="I17">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="J17">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="K17">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="L17">
         <v>500</v>
@@ -1641,7 +1641,7 @@
         <v>0.12</v>
       </c>
       <c r="V17">
-        <v>30.25000000000002</v>
+        <v>0</v>
       </c>
       <c r="W17">
         <v>0</v>
